--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spp1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H2">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I2">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J2">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>2310.065827221296</v>
+        <v>1707.931377204008</v>
       </c>
       <c r="R2">
-        <v>20790.59244499166</v>
+        <v>15371.38239483607</v>
       </c>
       <c r="S2">
-        <v>0.0003930841263087062</v>
+        <v>0.002223063230449385</v>
       </c>
       <c r="T2">
-        <v>0.0003930841263087062</v>
+        <v>0.002223063230449385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H3">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I3">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J3">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>2434.894954726356</v>
+        <v>1847.951779614103</v>
       </c>
       <c r="R3">
-        <v>21914.0545925372</v>
+        <v>16631.56601652693</v>
       </c>
       <c r="S3">
-        <v>0.0004143252303261737</v>
+        <v>0.002405315405370011</v>
       </c>
       <c r="T3">
-        <v>0.0004143252303261737</v>
+        <v>0.002405315405370011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H4">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I4">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J4">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>1573.159094257388</v>
+        <v>796.6277839573833</v>
       </c>
       <c r="R4">
-        <v>14158.43184831649</v>
+        <v>7169.650055616449</v>
       </c>
       <c r="S4">
-        <v>0.0002676910159112631</v>
+        <v>0.001036899935505137</v>
       </c>
       <c r="T4">
-        <v>0.0002676910159112631</v>
+        <v>0.001036899935505137</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H5">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I5">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J5">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>842.8846010644399</v>
+        <v>625.5698350962969</v>
       </c>
       <c r="R5">
-        <v>7585.961409579959</v>
+        <v>5630.128515866671</v>
       </c>
       <c r="S5">
-        <v>0.0001434264569798071</v>
+        <v>0.0008142489312173049</v>
       </c>
       <c r="T5">
-        <v>0.0001434264569798071</v>
+        <v>0.000814248931217305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H6">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I6">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J6">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>1227.024783697652</v>
+        <v>746.9214568932508</v>
       </c>
       <c r="R6">
-        <v>11043.22305327887</v>
+        <v>6722.293112039257</v>
       </c>
       <c r="S6">
-        <v>0.0002087923033947015</v>
+        <v>0.000972201605413058</v>
       </c>
       <c r="T6">
-        <v>0.0002087923033947015</v>
+        <v>0.0009722016054130582</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>141.883735</v>
       </c>
       <c r="I7">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J7">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>7742.689314452851</v>
+        <v>7542.711378746259</v>
       </c>
       <c r="R7">
-        <v>69684.20383007565</v>
+        <v>67884.40240871633</v>
       </c>
       <c r="S7">
-        <v>0.001317507158708294</v>
+        <v>0.009817680351673819</v>
       </c>
       <c r="T7">
-        <v>0.001317507158708294</v>
+        <v>0.009817680351673821</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>141.883735</v>
       </c>
       <c r="I8">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J8">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>8161.081353448764</v>
@@ -948,10 +948,10 @@
         <v>73449.73218103888</v>
       </c>
       <c r="S8">
-        <v>0.001388701350304581</v>
+        <v>0.01062255786134607</v>
       </c>
       <c r="T8">
-        <v>0.00138870135030458</v>
+        <v>0.01062255786134607</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>141.883735</v>
       </c>
       <c r="I9">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J9">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>5272.785721302373</v>
+        <v>3518.13517268911</v>
       </c>
       <c r="R9">
-        <v>47455.07149172136</v>
+        <v>31663.21655420199</v>
       </c>
       <c r="S9">
-        <v>0.0008972248080758318</v>
+        <v>0.004579245423173496</v>
       </c>
       <c r="T9">
-        <v>0.0008972248080758318</v>
+        <v>0.004579245423173498</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>141.883735</v>
       </c>
       <c r="I10">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J10">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>2825.111525860128</v>
+        <v>2762.694553399289</v>
       </c>
       <c r="R10">
-        <v>25426.00373274115</v>
+        <v>24864.25098059361</v>
       </c>
       <c r="S10">
-        <v>0.0004807250437547821</v>
+        <v>0.00359595517747265</v>
       </c>
       <c r="T10">
-        <v>0.000480725043754782</v>
+        <v>0.003595955177472652</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>141.883735</v>
       </c>
       <c r="I11">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J11">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>4112.64110717245</v>
+        <v>3298.617876065587</v>
       </c>
       <c r="R11">
-        <v>37013.76996455204</v>
+        <v>29687.56088459028</v>
       </c>
       <c r="S11">
-        <v>0.0006998129306032487</v>
+        <v>0.004293519171472275</v>
       </c>
       <c r="T11">
-        <v>0.0006998129306032485</v>
+        <v>0.004293519171472276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H12">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I12">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J12">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>1150565.354868915</v>
+        <v>65607.86518887446</v>
       </c>
       <c r="R12">
-        <v>10355088.19382024</v>
+        <v>590470.78669987</v>
       </c>
       <c r="S12">
-        <v>0.1957818569281786</v>
+        <v>0.08539595599469194</v>
       </c>
       <c r="T12">
-        <v>0.1957818569281785</v>
+        <v>0.08539595599469194</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H13">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I13">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J13">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>1212738.50495555</v>
+        <v>70986.55885749965</v>
       </c>
       <c r="R13">
-        <v>10914646.54459995</v>
+        <v>638879.0297174968</v>
       </c>
       <c r="S13">
-        <v>0.2063613296400286</v>
+        <v>0.0923969258709795</v>
       </c>
       <c r="T13">
-        <v>0.2063613296400286</v>
+        <v>0.0923969258709795</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H14">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I14">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J14">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>783537.1313754859</v>
+        <v>30601.37482874109</v>
       </c>
       <c r="R14">
-        <v>7051834.182379373</v>
+        <v>275412.3734586698</v>
       </c>
       <c r="S14">
-        <v>0.1333278061117598</v>
+        <v>0.03983110333996037</v>
       </c>
       <c r="T14">
-        <v>0.1333278061117598</v>
+        <v>0.03983110333996037</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H15">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I15">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J15">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>419812.2013275204</v>
+        <v>24030.41594938851</v>
       </c>
       <c r="R15">
-        <v>3778309.811947683</v>
+        <v>216273.7435444966</v>
       </c>
       <c r="S15">
-        <v>0.07143584846283887</v>
+        <v>0.03127826727848039</v>
       </c>
       <c r="T15">
-        <v>0.07143584846283887</v>
+        <v>0.0312782672784804</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H16">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I16">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J16">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>611139.3835846741</v>
+        <v>28691.97375526448</v>
       </c>
       <c r="R16">
-        <v>5500254.452262066</v>
+        <v>258227.7637973803</v>
       </c>
       <c r="S16">
-        <v>0.1039923571953735</v>
+        <v>0.03734580482312224</v>
       </c>
       <c r="T16">
-        <v>0.1039923571953735</v>
+        <v>0.03734580482312225</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H17">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I17">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J17">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>19381.15825492971</v>
+        <v>27631.50669200346</v>
       </c>
       <c r="R17">
-        <v>174430.4242943674</v>
+        <v>248683.5602280311</v>
       </c>
       <c r="S17">
-        <v>0.003297925786233449</v>
+        <v>0.03596548863073658</v>
       </c>
       <c r="T17">
-        <v>0.003297925786233448</v>
+        <v>0.03596548863073658</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H18">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I18">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J18">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>20428.45874589039</v>
+        <v>29896.80536726132</v>
       </c>
       <c r="R18">
-        <v>183856.1287130135</v>
+        <v>269071.2483053519</v>
       </c>
       <c r="S18">
-        <v>0.003476135945277771</v>
+        <v>0.03891402758152016</v>
       </c>
       <c r="T18">
-        <v>0.003476135945277771</v>
+        <v>0.03891402758152016</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H19">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I19">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J19">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>13198.60456213031</v>
+        <v>12888.12082104224</v>
       </c>
       <c r="R19">
-        <v>118787.4410591728</v>
+        <v>115993.0873893802</v>
       </c>
       <c r="S19">
-        <v>0.002245893550591919</v>
+        <v>0.01677532709408491</v>
       </c>
       <c r="T19">
-        <v>0.00224589355059192</v>
+        <v>0.01677532709408492</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H20">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I20">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J20">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>7071.694516828271</v>
+        <v>10120.6859452844</v>
       </c>
       <c r="R20">
-        <v>63645.25065145444</v>
+        <v>91086.17350755959</v>
       </c>
       <c r="S20">
-        <v>0.001203329718102972</v>
+        <v>0.01317320185821505</v>
       </c>
       <c r="T20">
-        <v>0.001203329718102972</v>
+        <v>0.01317320185821506</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H21">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I21">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J21">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>10294.58175404927</v>
+        <v>12083.9546073177</v>
       </c>
       <c r="R21">
-        <v>92651.23578644343</v>
+        <v>108755.5914658593</v>
       </c>
       <c r="S21">
-        <v>0.001751740849468163</v>
+        <v>0.01572861505122326</v>
       </c>
       <c r="T21">
-        <v>0.001751740849468163</v>
+        <v>0.01572861505122326</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H22">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I22">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J22">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>438465.568322444</v>
+        <v>126709.3231894423</v>
       </c>
       <c r="R22">
-        <v>3946190.114901996</v>
+        <v>1140383.90870498</v>
       </c>
       <c r="S22">
-        <v>0.07460993224067436</v>
+        <v>0.164926320282674</v>
       </c>
       <c r="T22">
-        <v>0.07460993224067435</v>
+        <v>0.1649263202826741</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H23">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I23">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J23">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>462158.9512943647</v>
+        <v>137097.264215001</v>
       </c>
       <c r="R23">
-        <v>4159430.561649282</v>
+        <v>1233875.377935009</v>
       </c>
       <c r="S23">
-        <v>0.07864163239184188</v>
+        <v>0.1784473844438121</v>
       </c>
       <c r="T23">
-        <v>0.07864163239184187</v>
+        <v>0.1784473844438122</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H24">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I24">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J24">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>298595.8617269779</v>
+        <v>59100.8331402581</v>
       </c>
       <c r="R24">
-        <v>2687362.755542801</v>
+        <v>531907.498262323</v>
       </c>
       <c r="S24">
-        <v>0.05080950163551354</v>
+        <v>0.0769263278353242</v>
       </c>
       <c r="T24">
-        <v>0.05080950163551354</v>
+        <v>0.07692632783532423</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H25">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I25">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J25">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>159984.9975186668</v>
+        <v>46410.25480926846</v>
       </c>
       <c r="R25">
-        <v>1439864.977668002</v>
+        <v>417692.2932834161</v>
       </c>
       <c r="S25">
-        <v>0.02722327746295054</v>
+        <v>0.06040812433059934</v>
       </c>
       <c r="T25">
-        <v>0.02722327746295054</v>
+        <v>0.06040812433059935</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H26">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I26">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J26">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>232897.3108861004</v>
+        <v>55413.18201762347</v>
       </c>
       <c r="R26">
-        <v>2096075.797974904</v>
+        <v>498718.6381586112</v>
       </c>
       <c r="S26">
-        <v>0.03963014165679875</v>
+        <v>0.07212643849148247</v>
       </c>
       <c r="T26">
-        <v>0.03963014165679874</v>
+        <v>0.07212643849148249</v>
       </c>
     </row>
   </sheetData>
